--- a/data/trans_orig/P56S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E0414C-F324-4864-8AD2-714E47BFA5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDF0C03-0CAA-4297-AF73-3B703458A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F7C0146-DF70-467D-B29E-7D60104D410C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83552607-076E-40CB-A13E-D041B4893BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="193">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,06%)</t>
   </si>
@@ -311,298 +311,304 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>36,72%</t>
+    <t>36,59%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -1023,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8D99F0-483E-4D18-B4C4-F979211C5068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AB6C1B-DA7A-42AC-8306-505CADB14B81}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4441,7 +4447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D41F0E-5193-46C6-AFC7-7C7B8BBC8AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD05347-0D5D-480C-BFF5-64B68EEC8D5E}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7859,7 +7865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FABD33-6B9F-4C5F-A0CD-0E06862A190D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B1BD8F-6130-455B-B5F5-E8787648A351}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11277,7 +11283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D97C9C-DB1B-4158-B905-8BC9B859E102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576B660E-E9DB-482F-86C8-50D69386E00C}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13778,13 +13784,13 @@
         <v>583</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -13793,13 +13799,13 @@
         <v>944</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13814,10 +13820,10 @@
         <v>15373</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>148</v>
@@ -13898,10 +13904,10 @@
         <v>161</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -13916,13 +13922,13 @@
         <v>688</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H59" s="7">
         <v>9</v>
@@ -13931,13 +13937,13 @@
         <v>5569</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M59" s="7">
         <v>10</v>
@@ -13946,13 +13952,13 @@
         <v>6257</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -13967,13 +13973,13 @@
         <v>11968</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H60" s="7">
         <v>45</v>
@@ -13982,13 +13988,13 @@
         <v>26295</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M60" s="7">
         <v>63</v>
@@ -13997,13 +14003,13 @@
         <v>38263</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14018,13 +14024,13 @@
         <v>5739</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H61" s="7">
         <v>10</v>
@@ -14033,13 +14039,13 @@
         <v>5201</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -14048,13 +14054,13 @@
         <v>10940</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14075,7 +14081,7 @@
         <v>26</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -14090,7 +14096,7 @@
         <v>26</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -14105,7 +14111,7 @@
         <v>26</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14290,13 +14296,13 @@
         <v>583</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M66" s="7">
         <v>2</v>
@@ -14305,13 +14311,13 @@
         <v>944</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14326,10 +14332,10 @@
         <v>15373</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>148</v>
@@ -14410,10 +14416,10 @@
         <v>161</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -14428,13 +14434,13 @@
         <v>688</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H69" s="7">
         <v>9</v>
@@ -14443,13 +14449,13 @@
         <v>5569</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M69" s="7">
         <v>10</v>
@@ -14458,13 +14464,13 @@
         <v>6257</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -14479,13 +14485,13 @@
         <v>11968</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H70" s="7">
         <v>45</v>
@@ -14494,13 +14500,13 @@
         <v>26295</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M70" s="7">
         <v>63</v>
@@ -14509,13 +14515,13 @@
         <v>38263</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -14530,13 +14536,13 @@
         <v>5739</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H71" s="7">
         <v>10</v>
@@ -14545,13 +14551,13 @@
         <v>5201</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M71" s="7">
         <v>17</v>
@@ -14560,13 +14566,13 @@
         <v>10940</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14587,7 +14593,7 @@
         <v>26</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -14602,7 +14608,7 @@
         <v>26</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -14617,7 +14623,7 @@
         <v>26</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P56S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDF0C03-0CAA-4297-AF73-3B703458A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1962EA4F-E3D3-4993-A817-ECDF21B0FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83552607-076E-40CB-A13E-D041B4893BF5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8A9E03A-A2E5-42AD-9D59-D6C1CE312CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -170,13 +170,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>19,48%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>14,48%</t>
+    <t>14,61%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -188,25 +188,25 @@
     <t>23,09%</t>
   </si>
   <si>
-    <t>57,66%</t>
+    <t>57,4%</t>
   </si>
   <si>
     <t>41,39%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>32,57%</t>
@@ -215,109 +215,109 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>66,81%</t>
+    <t>66,98%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>24,13%</t>
+    <t>20,18%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>15,81%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>44,36%</t>
+    <t>44,55%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>13,19%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>18,45%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,3%)</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,3%)</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>42,49%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>36,59%</t>
+    <t>35,57%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -329,94 +329,94 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>57,89%</t>
+    <t>55,75%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>49,0%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>33,81%</t>
+    <t>32,18%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>37,65%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>25,15%</t>
+    <t>27,71%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>58,78%</t>
+    <t>59,02%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>60,51%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AB6C1B-DA7A-42AC-8306-505CADB14B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED10A1E4-9E0F-41D7-9C3E-7157B710DF1C}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4447,7 +4447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD05347-0D5D-480C-BFF5-64B68EEC8D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAE928B-7679-4746-A9B0-9D35B00E640F}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7865,7 +7865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B1BD8F-6130-455B-B5F5-E8787648A351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D738743-1584-4291-9A6D-E59A6F03B7A2}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11283,7 +11283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576B660E-E9DB-482F-86C8-50D69386E00C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D109C53-4C92-4A45-B590-C40070B5AA51}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
